--- a/biology/Botanique/Arundinoideae/Arundinoideae.xlsx
+++ b/biology/Botanique/Arundinoideae/Arundinoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arundinoideae sont une sous-famille de plantes monocotylédones de la famille des Poaceae (Graminées), qui regroupe environ 40 espèces, dont de nombreuses espèces de roseaux (Phragmites spp. et la canne de Provence, Arundo donax).
-Contrairement à d'autres groupes de graminées du clade PACMAD, les Arundinoideae présentent toutes une photosynthèse en C3. Leur groupe frère est la sous-famille des Micrairoideae[1].
-Les Arundinoideae formaient un groupe beaucoup plus vaste dans les systèmes taxonomiques précédents, avec plus de 700 espèces, mais la plupart d'entre elles ont été déplacées vers d'autres sous-familles à la suite d'analyses phylogénétiques. Les espèces sont actuellement classées dans 16 genres et deux tribus[1].
+Contrairement à d'autres groupes de graminées du clade PACMAD, les Arundinoideae présentent toutes une photosynthèse en C3. Leur groupe frère est la sous-famille des Micrairoideae.
+Les Arundinoideae formaient un groupe beaucoup plus vaste dans les systèmes taxonomiques précédents, avec plus de 700 espèces, mais la plupart d'entre elles ont été déplacées vers d'autres sous-familles à la suite d'analyses phylogénétiques. Les espèces sont actuellement classées dans 16 genres et deux tribus.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Soreng et al. (2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Soreng et al. (2015) :
 Tribu des Arundineae
 Amphipogon (syn. Diplopogon)
 Arundo
